--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mmp13-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mmp13-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Lrp1</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2875206666666666</v>
+        <v>0.2746916666666667</v>
       </c>
       <c r="H2">
-        <v>0.8625619999999999</v>
+        <v>0.824075</v>
       </c>
       <c r="I2">
-        <v>0.008171135634502662</v>
+        <v>0.006382507955761411</v>
       </c>
       <c r="J2">
-        <v>0.00817113563450266</v>
+        <v>0.006398729849698352</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N2">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O2">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P2">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q2">
-        <v>1.134750531276444</v>
+        <v>0.798486464047222</v>
       </c>
       <c r="R2">
-        <v>10.212754781488</v>
+        <v>7.186378176424999</v>
       </c>
       <c r="S2">
-        <v>6.604147026170759E-05</v>
+        <v>3.523479944305203E-05</v>
       </c>
       <c r="T2">
-        <v>6.796492026876639E-05</v>
+        <v>3.598991740613555E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2875206666666666</v>
+        <v>0.2746916666666667</v>
       </c>
       <c r="H3">
-        <v>0.8625619999999999</v>
+        <v>0.824075</v>
       </c>
       <c r="I3">
-        <v>0.008171135634502662</v>
+        <v>0.006382507955761411</v>
       </c>
       <c r="J3">
-        <v>0.00817113563450266</v>
+        <v>0.006398729849698352</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P3">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q3">
-        <v>53.42212891921621</v>
+        <v>51.03846551216389</v>
       </c>
       <c r="R3">
-        <v>480.799160272946</v>
+        <v>459.346189609475</v>
       </c>
       <c r="S3">
-        <v>0.00310912032300783</v>
+        <v>0.002252173552306918</v>
       </c>
       <c r="T3">
-        <v>0.003199673084530821</v>
+        <v>0.002300439946105391</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2875206666666666</v>
+        <v>0.2746916666666667</v>
       </c>
       <c r="H4">
-        <v>0.8625619999999999</v>
+        <v>0.824075</v>
       </c>
       <c r="I4">
-        <v>0.008171135634502662</v>
+        <v>0.006382507955761411</v>
       </c>
       <c r="J4">
-        <v>0.00817113563450266</v>
+        <v>0.006398729849698352</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N4">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O4">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P4">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q4">
-        <v>33.73750951060289</v>
+        <v>37.65245610649443</v>
       </c>
       <c r="R4">
-        <v>303.637585595426</v>
+        <v>338.8721049584499</v>
       </c>
       <c r="S4">
-        <v>0.001963493005411743</v>
+        <v>0.001661489329106764</v>
       </c>
       <c r="T4">
-        <v>0.002020679506865344</v>
+        <v>0.001697096752952268</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2875206666666666</v>
+        <v>0.2746916666666667</v>
       </c>
       <c r="H5">
-        <v>0.8625619999999999</v>
+        <v>0.824075</v>
       </c>
       <c r="I5">
-        <v>0.008171135634502662</v>
+        <v>0.006382507955761411</v>
       </c>
       <c r="J5">
-        <v>0.00817113563450266</v>
+        <v>0.006398729849698352</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N5">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O5">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P5">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q5">
-        <v>11.92019683552933</v>
+        <v>8.024495277079167</v>
       </c>
       <c r="R5">
-        <v>71.52118101317599</v>
+        <v>48.146971662475</v>
       </c>
       <c r="S5">
-        <v>0.0006937448391778099</v>
+        <v>0.0003540967748989687</v>
       </c>
       <c r="T5">
-        <v>0.0004759667170213086</v>
+        <v>0.0002411236217949834</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2875206666666666</v>
+        <v>0.2746916666666667</v>
       </c>
       <c r="H6">
-        <v>0.8625619999999999</v>
+        <v>0.824075</v>
       </c>
       <c r="I6">
-        <v>0.008171135634502662</v>
+        <v>0.006382507955761411</v>
       </c>
       <c r="J6">
-        <v>0.00817113563450266</v>
+        <v>0.006398729849698352</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N6">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O6">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P6">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q6">
-        <v>40.18508225498155</v>
+        <v>47.12566575671111</v>
       </c>
       <c r="R6">
-        <v>361.665740294834</v>
+        <v>424.1309918104</v>
       </c>
       <c r="S6">
-        <v>0.002338735996643571</v>
+        <v>0.002079513500005708</v>
       </c>
       <c r="T6">
-        <v>0.002406851405816421</v>
+        <v>0.002124079611439574</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>81.752047</v>
       </c>
       <c r="I7">
-        <v>0.7744452740037661</v>
+        <v>0.6331742746440322</v>
       </c>
       <c r="J7">
-        <v>0.7744452740037661</v>
+        <v>0.6347835614632681</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N7">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O7">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P7">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q7">
-        <v>107.5495776143476</v>
+        <v>79.21354602148143</v>
       </c>
       <c r="R7">
-        <v>967.9461985291281</v>
+        <v>712.9219141933329</v>
       </c>
       <c r="S7">
-        <v>0.006259289628785202</v>
+        <v>0.003495454879839776</v>
       </c>
       <c r="T7">
-        <v>0.006441590698597253</v>
+        <v>0.003570366070215103</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>81.752047</v>
       </c>
       <c r="I8">
-        <v>0.7744452740037661</v>
+        <v>0.6331742746440322</v>
       </c>
       <c r="J8">
-        <v>0.7744452740037661</v>
+        <v>0.6347835614632681</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P8">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q8">
         <v>5063.251562489217</v>
@@ -948,10 +948,10 @@
         <v>45569.26406240295</v>
       </c>
       <c r="S8">
-        <v>0.2946767313830094</v>
+        <v>0.2234260208116399</v>
       </c>
       <c r="T8">
-        <v>0.3032591563171096</v>
+        <v>0.2282142700539215</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>81.752047</v>
       </c>
       <c r="I9">
-        <v>0.7744452740037661</v>
+        <v>0.6331742746440322</v>
       </c>
       <c r="J9">
-        <v>0.7744452740037661</v>
+        <v>0.6347835614632681</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N9">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O9">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P9">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q9">
-        <v>3197.57937768387</v>
+        <v>3735.297589762546</v>
       </c>
       <c r="R9">
-        <v>28778.21439915483</v>
+        <v>33617.67830786292</v>
       </c>
       <c r="S9">
-        <v>0.186096271876795</v>
+        <v>0.1648274170714251</v>
       </c>
       <c r="T9">
-        <v>0.191516303775488</v>
+        <v>0.1683598380134105</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>81.752047</v>
       </c>
       <c r="I10">
-        <v>0.7744452740037661</v>
+        <v>0.6331742746440322</v>
       </c>
       <c r="J10">
-        <v>0.7744452740037661</v>
+        <v>0.6347835614632681</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N10">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O10">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P10">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q10">
-        <v>1129.774430066993</v>
+        <v>796.0670024488718</v>
       </c>
       <c r="R10">
-        <v>6778.646580401956</v>
+        <v>4776.402014693231</v>
       </c>
       <c r="S10">
-        <v>0.06575186560325143</v>
+        <v>0.03512803589975295</v>
       </c>
       <c r="T10">
-        <v>0.04511125393926666</v>
+        <v>0.02392057720692134</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>81.752047</v>
       </c>
       <c r="I11">
-        <v>0.7744452740037661</v>
+        <v>0.6331742746440322</v>
       </c>
       <c r="J11">
-        <v>0.7744452740037661</v>
+        <v>0.6347835614632681</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N11">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O11">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P11">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q11">
-        <v>3808.668516823275</v>
+        <v>4675.083750688877</v>
       </c>
       <c r="R11">
-        <v>34278.01665140948</v>
+        <v>42075.7537561999</v>
       </c>
       <c r="S11">
-        <v>0.221661115511925</v>
+        <v>0.2062973459813744</v>
       </c>
       <c r="T11">
-        <v>0.2281169692733045</v>
+        <v>0.2107185101187996</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.640588333333333</v>
+        <v>3.784239333333333</v>
       </c>
       <c r="H12">
-        <v>13.921765</v>
+        <v>11.352718</v>
       </c>
       <c r="I12">
-        <v>0.1318822647956575</v>
+        <v>0.08792744950946914</v>
       </c>
       <c r="J12">
-        <v>0.1318822647956575</v>
+        <v>0.08815092745418533</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N12">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O12">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P12">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q12">
-        <v>18.31489241359555</v>
+        <v>11.00020223055578</v>
       </c>
       <c r="R12">
-        <v>164.83403172236</v>
+        <v>99.00182007500199</v>
       </c>
       <c r="S12">
-        <v>0.001065910426424977</v>
+        <v>0.0004854057480975965</v>
       </c>
       <c r="T12">
-        <v>0.001096954941471457</v>
+        <v>0.0004958084921337844</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.640588333333333</v>
+        <v>3.784239333333333</v>
       </c>
       <c r="H13">
-        <v>13.921765</v>
+        <v>11.352718</v>
       </c>
       <c r="I13">
-        <v>0.1318822647956575</v>
+        <v>0.08792744950946914</v>
       </c>
       <c r="J13">
-        <v>0.1318822647956575</v>
+        <v>0.08815092745418533</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P13">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q13">
-        <v>862.2340476545826</v>
+        <v>703.122053347477</v>
       </c>
       <c r="R13">
-        <v>7760.106428891244</v>
+        <v>6328.098480127293</v>
       </c>
       <c r="S13">
-        <v>0.05018125363004527</v>
+        <v>0.03102665561556739</v>
       </c>
       <c r="T13">
-        <v>0.0516427767043566</v>
+        <v>0.03169158873169275</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.640588333333333</v>
+        <v>3.784239333333333</v>
       </c>
       <c r="H14">
-        <v>13.921765</v>
+        <v>11.352718</v>
       </c>
       <c r="I14">
-        <v>0.1318822647956575</v>
+        <v>0.08792744950946914</v>
       </c>
       <c r="J14">
-        <v>0.1318822647956575</v>
+        <v>0.08815092745418533</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N14">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O14">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P14">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q14">
-        <v>544.523963601316</v>
+        <v>518.7121514236075</v>
       </c>
       <c r="R14">
-        <v>4900.715672411845</v>
+        <v>4668.409362812467</v>
       </c>
       <c r="S14">
-        <v>0.03169080970467747</v>
+        <v>0.02288920281935295</v>
       </c>
       <c r="T14">
-        <v>0.03261380078753204</v>
+        <v>0.02337974195914543</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.640588333333333</v>
+        <v>3.784239333333333</v>
       </c>
       <c r="H15">
-        <v>13.921765</v>
+        <v>11.352718</v>
       </c>
       <c r="I15">
-        <v>0.1318822647956575</v>
+        <v>0.08792744950946914</v>
       </c>
       <c r="J15">
-        <v>0.1318822647956575</v>
+        <v>0.08815092745418533</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N15">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O15">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P15">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q15">
-        <v>192.3921748210366</v>
+        <v>110.5479864976023</v>
       </c>
       <c r="R15">
-        <v>1154.35304892622</v>
+        <v>663.2879189856139</v>
       </c>
       <c r="S15">
-        <v>0.01119705322167712</v>
+        <v>0.004878149234156443</v>
       </c>
       <c r="T15">
-        <v>0.007682110714583019</v>
+        <v>0.003321795323698814</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,14 +1393,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.640588333333333</v>
+        <v>3.784239333333333</v>
       </c>
       <c r="H16">
-        <v>13.921765</v>
+        <v>11.352718</v>
       </c>
       <c r="I16">
-        <v>0.1318822647956575</v>
+        <v>0.08792744950946914</v>
       </c>
       <c r="J16">
-        <v>0.1318822647956575</v>
+        <v>0.08815092745418533</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N16">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O16">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P16">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q16">
-        <v>648.5878947362893</v>
+        <v>649.2180856089528</v>
       </c>
       <c r="R16">
-        <v>5837.291052626605</v>
+        <v>5842.962770480575</v>
       </c>
       <c r="S16">
-        <v>0.03774723781283268</v>
+        <v>0.02864803609229476</v>
       </c>
       <c r="T16">
-        <v>0.03884662164771441</v>
+        <v>0.02926199294751455</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>3.008565666666667</v>
+        <v>0.327328</v>
       </c>
       <c r="H17">
-        <v>9.025697000000001</v>
+        <v>0.654656</v>
       </c>
       <c r="I17">
-        <v>0.08550132556607384</v>
+        <v>0.007605522182362544</v>
       </c>
       <c r="J17">
-        <v>0.08550132556607383</v>
+        <v>0.005083235007109941</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N17">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O17">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P17">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q17">
-        <v>11.87382989963645</v>
+        <v>0.9514921965973332</v>
       </c>
       <c r="R17">
-        <v>106.864469096728</v>
+        <v>5.708953179583999</v>
       </c>
       <c r="S17">
-        <v>0.0006910463248052702</v>
+        <v>4.198648095899767E-05</v>
       </c>
       <c r="T17">
-        <v>0.000711172967247623</v>
+        <v>2.859086293047486E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>3.008565666666667</v>
+        <v>0.327328</v>
       </c>
       <c r="H18">
-        <v>9.025697000000001</v>
+        <v>0.654656</v>
       </c>
       <c r="I18">
-        <v>0.08550132556607384</v>
+        <v>0.007605522182362544</v>
       </c>
       <c r="J18">
-        <v>0.08550132556607383</v>
+        <v>0.005083235007109941</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P18">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q18">
-        <v>558.9997573737113</v>
+        <v>60.81844069714133</v>
       </c>
       <c r="R18">
-        <v>5030.997816363401</v>
+        <v>364.910644182848</v>
       </c>
       <c r="S18">
-        <v>0.03253328800945418</v>
+        <v>0.002683734361057618</v>
       </c>
       <c r="T18">
-        <v>0.03348081617324968</v>
+        <v>0.001827499697670201</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>3.008565666666667</v>
+        <v>0.327328</v>
       </c>
       <c r="H19">
-        <v>9.025697000000001</v>
+        <v>0.654656</v>
       </c>
       <c r="I19">
-        <v>0.08550132556607384</v>
+        <v>0.007605522182362544</v>
       </c>
       <c r="J19">
-        <v>0.08550132556607383</v>
+        <v>0.005083235007109941</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N19">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O19">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P19">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q19">
-        <v>353.023363395698</v>
+        <v>44.86740825444266</v>
       </c>
       <c r="R19">
-        <v>3177.210270561282</v>
+        <v>269.204449526656</v>
       </c>
       <c r="S19">
-        <v>0.02054564533154226</v>
+        <v>0.001979863407279164</v>
       </c>
       <c r="T19">
-        <v>0.02114403482077349</v>
+        <v>0.001348195943209927</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>3.008565666666667</v>
+        <v>0.327328</v>
       </c>
       <c r="H20">
-        <v>9.025697000000001</v>
+        <v>0.654656</v>
       </c>
       <c r="I20">
-        <v>0.08550132556607384</v>
+        <v>0.007605522182362544</v>
       </c>
       <c r="J20">
-        <v>0.08550132556607383</v>
+        <v>0.005083235007109941</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N20">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O20">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P20">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q20">
-        <v>124.7308423253593</v>
+        <v>9.562146613072001</v>
       </c>
       <c r="R20">
-        <v>748.3850539521561</v>
+        <v>38.248586452288</v>
       </c>
       <c r="S20">
-        <v>0.007259223932578345</v>
+        <v>0.0004219486908380777</v>
       </c>
       <c r="T20">
-        <v>0.004980431980447869</v>
+        <v>0.0001915517710764392</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.327328</v>
+      </c>
+      <c r="H21">
+        <v>0.654656</v>
+      </c>
+      <c r="I21">
+        <v>0.007605522182362544</v>
+      </c>
+      <c r="J21">
+        <v>0.005083235007109941</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>171.5584106666666</v>
+      </c>
+      <c r="N21">
+        <v>514.6752319999999</v>
+      </c>
+      <c r="O21">
+        <v>0.3258144783240821</v>
+      </c>
+      <c r="P21">
+        <v>0.331953319069988</v>
+      </c>
+      <c r="Q21">
+        <v>56.15587144669866</v>
+      </c>
+      <c r="R21">
+        <v>336.935228680192</v>
+      </c>
+      <c r="S21">
+        <v>0.002477989242228687</v>
+      </c>
+      <c r="T21">
+        <v>0.001687396732222899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>11.40126066666667</v>
+      </c>
+      <c r="H22">
+        <v>34.203782</v>
+      </c>
+      <c r="I22">
+        <v>0.2649102457083748</v>
+      </c>
+      <c r="J22">
+        <v>0.2655835462257382</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.906846333333333</v>
+      </c>
+      <c r="N22">
+        <v>8.720538999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.005520525738044089</v>
+      </c>
+      <c r="P22">
+        <v>0.005624540846623205</v>
+      </c>
+      <c r="Q22">
+        <v>33.14171276427755</v>
+      </c>
+      <c r="R22">
+        <v>298.275414878498</v>
+      </c>
+      <c r="S22">
+        <v>0.001462443829704667</v>
+      </c>
+      <c r="T22">
+        <v>0.001493785503937707</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>11.40126066666667</v>
+      </c>
+      <c r="H23">
+        <v>34.203782</v>
+      </c>
+      <c r="I23">
+        <v>0.2649102457083748</v>
+      </c>
+      <c r="J23">
+        <v>0.2655835462257382</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>185.8027443333333</v>
+      </c>
+      <c r="N23">
+        <v>557.408233</v>
+      </c>
+      <c r="O23">
+        <v>0.3528665483720876</v>
+      </c>
+      <c r="P23">
+        <v>0.3595150912979765</v>
+      </c>
+      <c r="Q23">
+        <v>2118.385520726356</v>
+      </c>
+      <c r="R23">
+        <v>19065.46968653721</v>
+      </c>
+      <c r="S23">
+        <v>0.09347796403151586</v>
+      </c>
+      <c r="T23">
+        <v>0.09548129286858664</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>11.40126066666667</v>
+      </c>
+      <c r="H24">
+        <v>34.203782</v>
+      </c>
+      <c r="I24">
+        <v>0.2649102457083748</v>
+      </c>
+      <c r="J24">
+        <v>0.2655835462257382</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>137.0717086666666</v>
+      </c>
+      <c r="N24">
+        <v>411.2151259999999</v>
+      </c>
+      <c r="O24">
+        <v>0.2603191943704447</v>
+      </c>
+      <c r="P24">
+        <v>0.2652240042658267</v>
+      </c>
+      <c r="Q24">
+        <v>1562.790280534059</v>
+      </c>
+      <c r="R24">
+        <v>14065.11252480653</v>
+      </c>
+      <c r="S24">
+        <v>0.06896122174328066</v>
+      </c>
+      <c r="T24">
+        <v>0.07043913159710857</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>3.008565666666667</v>
-      </c>
-      <c r="H21">
-        <v>9.025697000000001</v>
-      </c>
-      <c r="I21">
-        <v>0.08550132556607384</v>
-      </c>
-      <c r="J21">
-        <v>0.08550132556607383</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>139.7641523333333</v>
-      </c>
-      <c r="N21">
-        <v>419.292457</v>
-      </c>
-      <c r="O21">
-        <v>0.2862192112890951</v>
-      </c>
-      <c r="P21">
-        <v>0.2945553119511906</v>
-      </c>
-      <c r="Q21">
-        <v>420.4896301408366</v>
-      </c>
-      <c r="R21">
-        <v>3784.406671267529</v>
-      </c>
-      <c r="S21">
-        <v>0.02447212196769379</v>
-      </c>
-      <c r="T21">
-        <v>0.02518486962435518</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>11.40126066666667</v>
+      </c>
+      <c r="H25">
+        <v>34.203782</v>
+      </c>
+      <c r="I25">
+        <v>0.2649102457083748</v>
+      </c>
+      <c r="J25">
+        <v>0.2655835462257382</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>29.2127365</v>
+      </c>
+      <c r="N25">
+        <v>58.425473</v>
+      </c>
+      <c r="O25">
+        <v>0.05547925319534149</v>
+      </c>
+      <c r="P25">
+        <v>0.03768304451958546</v>
+      </c>
+      <c r="Q25">
+        <v>333.0620236231477</v>
+      </c>
+      <c r="R25">
+        <v>1998.372141738886</v>
+      </c>
+      <c r="S25">
+        <v>0.01469702259569505</v>
+      </c>
+      <c r="T25">
+        <v>0.01000799659609388</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>11.40126066666667</v>
+      </c>
+      <c r="H26">
+        <v>34.203782</v>
+      </c>
+      <c r="I26">
+        <v>0.2649102457083748</v>
+      </c>
+      <c r="J26">
+        <v>0.2655835462257382</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>171.5584106666666</v>
+      </c>
+      <c r="N26">
+        <v>514.6752319999999</v>
+      </c>
+      <c r="O26">
+        <v>0.3258144783240821</v>
+      </c>
+      <c r="P26">
+        <v>0.331953319069988</v>
+      </c>
+      <c r="Q26">
+        <v>1955.982159569714</v>
+      </c>
+      <c r="R26">
+        <v>17603.83943612742</v>
+      </c>
+      <c r="S26">
+        <v>0.08631159350817855</v>
+      </c>
+      <c r="T26">
+        <v>0.0881613396600114</v>
       </c>
     </row>
   </sheetData>
